--- a/Robot Procesamiento TERPEL/Config/Archivos/UiTreeFila.xlsx
+++ b/Robot Procesamiento TERPEL/Config/Archivos/UiTreeFila.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Path</x:t>
   </x:si>
@@ -43,31 +43,154 @@
     <x:t>Material</x:t>
   </x:si>
   <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000240951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240951</x:t>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240602</x:t>
+  </x:si>
+  <x:si>
+    <x:t>181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-00000056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240401</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>06-00000055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240950</x:t>
   </x:si>
   <x:si>
     <x:t>173</x:t>
   </x:si>
   <x:si>
-    <x:t>06-00000055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>001-042-000240945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>178</x:t>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documentos/0990962170001 TERPEL-COMERCIAL ECUADOR C/FC/001-042-000240948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>001-042-000240948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -470,13 +593,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>10086501</x:v>
+        <x:v>10086339</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>8070</x:v>
+        <x:v>23680</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>4400097565</x:v>
+        <x:v>4400097566</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>13</x:v>
@@ -499,15 +622,305 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>10086597</x:v>
+        <x:v>10086426</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>8080</x:v>
+        <x:v>23690</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
+        <x:v>4400097566</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>10086434</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>23700</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>4400097566</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
+        <x:v>10086488</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="n">
+        <x:v>8010</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="n">
         <x:v>4400097565</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>10086493</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="n">
+        <x:v>8020</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="n">
+        <x:v>4400097565</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="n">
+        <x:v>10086491</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="n">
+        <x:v>23710</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="n">
+        <x:v>4400097566</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="n">
+        <x:v>10086505</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="n">
+        <x:v>8030</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="n">
+        <x:v>4400097565</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="n">
+        <x:v>10086504</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>8040</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>4400097565</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="n">
+        <x:v>10086516</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="n">
+        <x:v>8050</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="n">
+        <x:v>4400097565</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="n">
+        <x:v>10086521</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="n">
+        <x:v>8060</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="n">
+        <x:v>4400097565</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="n">
+        <x:v>10086492</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="n">
+        <x:v>23720</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="n">
+        <x:v>4400097566</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="n">
+        <x:v>10086575</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>23730</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>4400097566</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
